--- a/tests/api/data/truck_availability_test.xlsx
+++ b/tests/api/data/truck_availability_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python code\SEP\sep-2021_q1-group-2\tests\api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20169619\Documents\TUe\Y4\Q1\SEP\sep-2021_q1-group-2\tests\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE8CA6-32F1-4C9E-8863-B9939F574EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="3450" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32325" yWindow="3450" windowWidth="21600" windowHeight="11835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Truck ID</t>
   </si>
@@ -202,12 +201,63 @@
   </si>
   <si>
     <t>Truck Hierarchy</t>
+  </si>
+  <si>
+    <t>BB-FL-29</t>
+  </si>
+  <si>
+    <t>Chartered</t>
+  </si>
+  <si>
+    <t>Driver_Bolin</t>
+  </si>
+  <si>
+    <t>KAT</t>
+  </si>
+  <si>
+    <t>Vug</t>
+  </si>
+  <si>
+    <t>36-BJN-2</t>
+  </si>
+  <si>
+    <t>Driver_Aang</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>54-BLN-5</t>
+  </si>
+  <si>
+    <t>Driver_Tenzin</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>91-BGR-5</t>
+  </si>
+  <si>
+    <t>Driver_meelo</t>
+  </si>
+  <si>
+    <t>Laffa</t>
+  </si>
+  <si>
+    <t>77-BDF-9</t>
+  </si>
+  <si>
+    <t>Driver_Jinora</t>
+  </si>
+  <si>
+    <t>CVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
@@ -297,7 +347,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,8 +1480,198 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="4">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>15</v>
+      </c>
+      <c r="K22" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="5">
+        <v>3</v>
+      </c>
+      <c r="J23" s="5">
+        <v>20</v>
+      </c>
+      <c r="K23" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5">
+        <v>15</v>
+      </c>
+      <c r="K25" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/tests/api/data/truck_availability_test.xlsx
+++ b/tests/api/data/truck_availability_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Python code\SEP\sep-2021_q1-group-2\tests\api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20169619\Documents\TUe\Y4\Q1\SEP\sep-2021_q1-group-2\tests\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE8CA6-32F1-4C9E-8863-B9939F574EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="3450" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32325" yWindow="3450" windowWidth="21600" windowHeight="11835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Truck ID</t>
   </si>
@@ -202,12 +201,63 @@
   </si>
   <si>
     <t>Truck Hierarchy</t>
+  </si>
+  <si>
+    <t>BB-FL-29</t>
+  </si>
+  <si>
+    <t>Chartered</t>
+  </si>
+  <si>
+    <t>Driver_Bolin</t>
+  </si>
+  <si>
+    <t>KAT</t>
+  </si>
+  <si>
+    <t>Vug</t>
+  </si>
+  <si>
+    <t>36-BJN-2</t>
+  </si>
+  <si>
+    <t>Driver_Aang</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>54-BLN-5</t>
+  </si>
+  <si>
+    <t>Driver_Tenzin</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>91-BGR-5</t>
+  </si>
+  <si>
+    <t>Driver_meelo</t>
+  </si>
+  <si>
+    <t>Laffa</t>
+  </si>
+  <si>
+    <t>77-BDF-9</t>
+  </si>
+  <si>
+    <t>Driver_Jinora</t>
+  </si>
+  <si>
+    <t>CVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
@@ -282,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,9 +345,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +712,7 @@
     <col min="7" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="29.28515625" customWidth="1"/>
   </cols>
@@ -1430,8 +1483,198 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21" s="10">
+        <v>44021</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22" s="10">
+        <v>44021</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" s="10">
+        <v>44021</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24" s="10">
+        <v>44021</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25" s="10">
+        <v>44021</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
